--- a/CircuitLevis/resultats/Resultats_1_2021.xlsx
+++ b/CircuitLevis/resultats/Resultats_1_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projets\cx418WebSite\CircuitLevis\resultats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{179F373B-C8FC-4726-9FE6-81FF81AEE5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00659191-4619-463C-8403-7DE378BE64FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B272D99C-63C9-4C61-8C17-CB33AE6AAB05}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="163">
   <si>
     <t>No</t>
   </si>
@@ -518,6 +518,12 @@
   </si>
   <si>
     <t>Cyclocrossde Lévis VéloOptium#1    Catégories                        1er Septembre 2021</t>
+  </si>
+  <si>
+    <t>Savard</t>
+  </si>
+  <si>
+    <t>Daniel</t>
   </si>
 </sst>
 </file>
@@ -588,10 +594,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1207,10 +1213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993DF98D-2E7B-4851-9233-A8BEF5B6C94D}">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,12 +1229,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -2297,6 +2303,15 @@
       <c r="B44" s="3">
         <v>619</v>
       </c>
+      <c r="C44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="H44" s="4" t="s">
         <v>141</v>
       </c>
@@ -2589,12 +2604,12 @@
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
@@ -3569,25 +3584,19 @@
         <v>11</v>
       </c>
       <c r="B100" s="3">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="C100" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="D100" t="s">
-        <v>62</v>
-      </c>
-      <c r="E100" t="s">
-        <v>7</v>
-      </c>
-      <c r="F100">
-        <v>1983</v>
+        <v>162</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>90</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3595,397 +3604,416 @@
         <v>12</v>
       </c>
       <c r="B101" s="3">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D101" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E101" t="s">
         <v>7</v>
       </c>
       <c r="F101">
-        <v>1977</v>
+        <v>1983</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>90</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
+      <c r="A102" s="3">
+        <v>13</v>
+      </c>
       <c r="B102" s="3">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="C102" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D102" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E102" t="s">
         <v>7</v>
       </c>
       <c r="F102">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>90</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="G103" s="3"/>
+      <c r="B103" s="3">
+        <v>603</v>
+      </c>
+      <c r="C103" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103">
+        <v>1979</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
-        <v>1</v>
-      </c>
-      <c r="B104" s="3">
-        <v>607</v>
-      </c>
-      <c r="C104" t="s">
-        <v>26</v>
-      </c>
-      <c r="D104" t="s">
-        <v>27</v>
-      </c>
-      <c r="E104" t="s">
-        <v>7</v>
-      </c>
-      <c r="F104">
-        <v>1973</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="G104" s="3"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B105" s="3">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E105" t="s">
         <v>7</v>
       </c>
       <c r="F105">
-        <v>1967</v>
+        <v>1973</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B106" s="3">
-        <v>141</v>
+        <v>612</v>
       </c>
       <c r="C106" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="D106" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="E106" t="s">
         <v>7</v>
       </c>
       <c r="F106">
-        <v>1971</v>
+        <v>1967</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B107" s="3">
-        <v>639</v>
+        <v>141</v>
       </c>
       <c r="C107" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="D107" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="E107" t="s">
         <v>7</v>
       </c>
       <c r="F107">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B108" s="3">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C108" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D108" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E108" t="s">
         <v>7</v>
       </c>
       <c r="F108">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B109" s="3">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C109" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D109" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="E109" t="s">
         <v>7</v>
       </c>
       <c r="F109">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B110" s="3">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="C110" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D110" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E110" t="s">
         <v>7</v>
       </c>
       <c r="F110">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B111" s="3">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="C111" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="D111" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E111" t="s">
         <v>7</v>
       </c>
       <c r="F111">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B112" s="3">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C112" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="D112" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E112" t="s">
         <v>7</v>
       </c>
       <c r="F112">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B113" s="3">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C113" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D113" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E113" t="s">
         <v>7</v>
       </c>
       <c r="F113">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H113" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>10</v>
+      </c>
+      <c r="B114" s="3">
+        <v>630</v>
+      </c>
+      <c r="C114" t="s">
+        <v>59</v>
+      </c>
+      <c r="D114" t="s">
+        <v>60</v>
+      </c>
+      <c r="E114" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114">
+        <v>1973</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H114" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="G114" s="3"/>
-    </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
-        <v>1</v>
-      </c>
-      <c r="B115" s="3">
-        <v>608</v>
-      </c>
-      <c r="C115" t="s">
-        <v>110</v>
-      </c>
-      <c r="D115" t="s">
-        <v>111</v>
-      </c>
-      <c r="E115" t="s">
-        <v>7</v>
-      </c>
-      <c r="F115">
-        <v>1963</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>144</v>
-      </c>
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+      <c r="G115" s="3"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B116" s="3">
-        <v>149</v>
+        <v>608</v>
       </c>
       <c r="C116" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="D116" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="E116" t="s">
         <v>7</v>
       </c>
       <c r="F116">
-        <v>1959</v>
+        <v>1963</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H116" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>2</v>
+      </c>
+      <c r="B117" s="3">
+        <v>149</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117">
+        <v>1959</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H117" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="G117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
-      <c r="B118" s="3">
-        <v>641</v>
-      </c>
+      <c r="B118" s="3"/>
       <c r="G118" s="3"/>
-      <c r="H118" s="3" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3">
-        <v>619</v>
+        <v>641</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3" t="s">
-        <v>141</v>
-      </c>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:H55">
@@ -4020,12 +4048,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
       <c r="G1"/>
     </row>
     <row r="2" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
